--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +528,1115 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.48346046574314</v>
+        <v>5.5445495</v>
       </c>
       <c r="H2">
-        <v>5.48346046574314</v>
+        <v>11.089099</v>
       </c>
       <c r="I2">
-        <v>0.5230268331373219</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J2">
-        <v>0.5230268331373219</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.76222125768244</v>
+        <v>0.142069</v>
       </c>
       <c r="N2">
-        <v>0.76222125768244</v>
+        <v>0.426207</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1364551007020182</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1806547461359297</v>
       </c>
       <c r="Q2">
-        <v>4.179610132650675</v>
+        <v>0.7877086029155</v>
       </c>
       <c r="R2">
-        <v>4.179610132650675</v>
+        <v>4.726251617493</v>
       </c>
       <c r="S2">
-        <v>0.5230268331373219</v>
+        <v>0.06549190333928405</v>
       </c>
       <c r="T2">
-        <v>0.5230268331373219</v>
+        <v>0.07368232064672746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.07661518113532</v>
+        <v>5.5445495</v>
       </c>
       <c r="H3">
-        <v>3.07661518113532</v>
+        <v>11.089099</v>
       </c>
       <c r="I3">
-        <v>0.2934556207752901</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J3">
-        <v>0.2934556207752901</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.76222125768244</v>
+        <v>0.134884</v>
       </c>
       <c r="N3">
-        <v>0.76222125768244</v>
+        <v>0.404652</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.129554018139714</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.171518309960644</v>
       </c>
       <c r="Q3">
-        <v>2.345061492769851</v>
+        <v>0.7478710147580001</v>
       </c>
       <c r="R3">
-        <v>2.345061492769851</v>
+        <v>4.487226088548001</v>
       </c>
       <c r="S3">
-        <v>0.2934556207752901</v>
+        <v>0.06217971471620121</v>
       </c>
       <c r="T3">
-        <v>0.2934556207752901</v>
+        <v>0.06995590972072152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.92401449597554</v>
+        <v>5.5445495</v>
       </c>
       <c r="H4">
-        <v>1.92401449597554</v>
+        <v>11.089099</v>
       </c>
       <c r="I4">
-        <v>0.1835175460873881</v>
+        <v>0.4799520355219333</v>
       </c>
       <c r="J4">
-        <v>0.1835175460873881</v>
+        <v>0.4078626342387198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.76222125768244</v>
+        <v>0.7641880000000001</v>
       </c>
       <c r="N4">
-        <v>0.76222125768244</v>
+        <v>1.528376</v>
       </c>
       <c r="O4">
+        <v>0.7339908811582677</v>
+      </c>
+      <c r="P4">
+        <v>0.6478269439034264</v>
+      </c>
+      <c r="Q4">
+        <v>4.237078193306001</v>
+      </c>
+      <c r="R4">
+        <v>16.948312773224</v>
+      </c>
+      <c r="S4">
+        <v>0.352280417466448</v>
+      </c>
+      <c r="T4">
+        <v>0.2642244038712708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.150215</v>
+      </c>
+      <c r="H5">
+        <v>0.450645</v>
+      </c>
+      <c r="I5">
+        <v>0.01300303929398181</v>
+      </c>
+      <c r="J5">
+        <v>0.01657494957944805</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.142069</v>
+      </c>
+      <c r="N5">
+        <v>0.426207</v>
+      </c>
+      <c r="O5">
+        <v>0.1364551007020182</v>
+      </c>
+      <c r="P5">
+        <v>0.1806547461359297</v>
+      </c>
+      <c r="Q5">
+        <v>0.021340894835</v>
+      </c>
+      <c r="R5">
+        <v>0.192068053515</v>
+      </c>
+      <c r="S5">
+        <v>0.001774331036292588</v>
+      </c>
+      <c r="T5">
+        <v>0.002994343308491022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.150215</v>
+      </c>
+      <c r="H6">
+        <v>0.450645</v>
+      </c>
+      <c r="I6">
+        <v>0.01300303929398181</v>
+      </c>
+      <c r="J6">
+        <v>0.01657494957944805</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.134884</v>
+      </c>
+      <c r="N6">
+        <v>0.404652</v>
+      </c>
+      <c r="O6">
+        <v>0.129554018139714</v>
+      </c>
+      <c r="P6">
+        <v>0.171518309960644</v>
+      </c>
+      <c r="Q6">
+        <v>0.02026160006</v>
+      </c>
+      <c r="R6">
+        <v>0.18235440054</v>
+      </c>
+      <c r="S6">
+        <v>0.001684595988563933</v>
+      </c>
+      <c r="T6">
+        <v>0.002842907339549818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.150215</v>
+      </c>
+      <c r="H7">
+        <v>0.450645</v>
+      </c>
+      <c r="I7">
+        <v>0.01300303929398181</v>
+      </c>
+      <c r="J7">
+        <v>0.01657494957944805</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="M7">
+        <v>0.7641880000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.528376</v>
+      </c>
+      <c r="O7">
+        <v>0.7339908811582677</v>
+      </c>
+      <c r="P7">
+        <v>0.6478269439034264</v>
+      </c>
+      <c r="Q7">
+        <v>0.11479250042</v>
+      </c>
+      <c r="R7">
+        <v>0.68875500252</v>
+      </c>
+      <c r="S7">
+        <v>0.009544112269125287</v>
+      </c>
+      <c r="T7">
+        <v>0.01073769893140722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J8">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.142069</v>
+      </c>
+      <c r="N8">
+        <v>0.426207</v>
+      </c>
+      <c r="O8">
+        <v>0.1364551007020182</v>
+      </c>
+      <c r="P8">
+        <v>0.1806547461359297</v>
+      </c>
+      <c r="Q8">
+        <v>0.03220140689633333</v>
+      </c>
+      <c r="R8">
+        <v>0.289812662067</v>
+      </c>
+      <c r="S8">
+        <v>0.002677298965680903</v>
+      </c>
+      <c r="T8">
+        <v>0.004518182953879514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J9">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.134884</v>
+      </c>
+      <c r="N9">
+        <v>0.404652</v>
+      </c>
+      <c r="O9">
+        <v>0.129554018139714</v>
+      </c>
+      <c r="P9">
+        <v>0.171518309960644</v>
+      </c>
+      <c r="Q9">
+        <v>0.03057285240133333</v>
+      </c>
+      <c r="R9">
+        <v>0.275155671612</v>
+      </c>
+      <c r="S9">
+        <v>0.002541897202675481</v>
+      </c>
+      <c r="T9">
+        <v>0.004289680293034261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2266603333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.6799809999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.01962036561408879</v>
+      </c>
+      <c r="J10">
+        <v>0.025010042916226</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>1.466524748921722</v>
-      </c>
-      <c r="R4">
-        <v>1.466524748921722</v>
-      </c>
-      <c r="S4">
-        <v>0.1835175460873881</v>
-      </c>
-      <c r="T4">
-        <v>0.1835175460873881</v>
+      <c r="M10">
+        <v>0.7641880000000001</v>
+      </c>
+      <c r="N10">
+        <v>1.528376</v>
+      </c>
+      <c r="O10">
+        <v>0.7339908811582677</v>
+      </c>
+      <c r="P10">
+        <v>0.6478269439034264</v>
+      </c>
+      <c r="Q10">
+        <v>0.1732111068093334</v>
+      </c>
+      <c r="R10">
+        <v>1.039266640856</v>
+      </c>
+      <c r="S10">
+        <v>0.01440116944573241</v>
+      </c>
+      <c r="T10">
+        <v>0.01620217966931223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.450882</v>
+      </c>
+      <c r="I11">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J11">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.142069</v>
+      </c>
+      <c r="N11">
+        <v>0.426207</v>
+      </c>
+      <c r="O11">
+        <v>0.1364551007020182</v>
+      </c>
+      <c r="P11">
+        <v>0.1806547461359297</v>
+      </c>
+      <c r="Q11">
+        <v>0.06870845161933334</v>
+      </c>
+      <c r="R11">
+        <v>0.618376064574</v>
+      </c>
+      <c r="S11">
+        <v>0.005712578554290546</v>
+      </c>
+      <c r="T11">
+        <v>0.009640490426189289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.450882</v>
+      </c>
+      <c r="I12">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J12">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.134884</v>
+      </c>
+      <c r="N12">
+        <v>0.404652</v>
+      </c>
+      <c r="O12">
+        <v>0.129554018139714</v>
+      </c>
+      <c r="P12">
+        <v>0.171518309960644</v>
+      </c>
+      <c r="Q12">
+        <v>0.06523358922933334</v>
+      </c>
+      <c r="R12">
+        <v>0.587102303064</v>
+      </c>
+      <c r="S12">
+        <v>0.005423670510223385</v>
+      </c>
+      <c r="T12">
+        <v>0.009152932100923607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4836273333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.450882</v>
+      </c>
+      <c r="I13">
+        <v>0.04186416282646189</v>
+      </c>
+      <c r="J13">
+        <v>0.05336416912587237</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7641880000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.528376</v>
+      </c>
+      <c r="O13">
+        <v>0.7339908811582677</v>
+      </c>
+      <c r="P13">
+        <v>0.6478269439034264</v>
+      </c>
+      <c r="Q13">
+        <v>0.3695822046053334</v>
+      </c>
+      <c r="R13">
+        <v>2.217493227632</v>
+      </c>
+      <c r="S13">
+        <v>0.03072791376194796</v>
+      </c>
+      <c r="T13">
+        <v>0.03457074659875948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.223217</v>
+      </c>
+      <c r="H14">
+        <v>9.669651</v>
+      </c>
+      <c r="I14">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J14">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.142069</v>
+      </c>
+      <c r="N14">
+        <v>0.426207</v>
+      </c>
+      <c r="O14">
+        <v>0.1364551007020182</v>
+      </c>
+      <c r="P14">
+        <v>0.1806547461359297</v>
+      </c>
+      <c r="Q14">
+        <v>0.457919215973</v>
+      </c>
+      <c r="R14">
+        <v>4.121272943757</v>
+      </c>
+      <c r="S14">
+        <v>0.03807245587861324</v>
+      </c>
+      <c r="T14">
+        <v>0.06425069570791538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.223217</v>
+      </c>
+      <c r="H15">
+        <v>9.669651</v>
+      </c>
+      <c r="I15">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J15">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.134884</v>
+      </c>
+      <c r="N15">
+        <v>0.404652</v>
+      </c>
+      <c r="O15">
+        <v>0.129554018139714</v>
+      </c>
+      <c r="P15">
+        <v>0.171518309960644</v>
+      </c>
+      <c r="Q15">
+        <v>0.434760401828</v>
+      </c>
+      <c r="R15">
+        <v>3.912843616452</v>
+      </c>
+      <c r="S15">
+        <v>0.03614697885345056</v>
+      </c>
+      <c r="T15">
+        <v>0.06100127994049692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.223217</v>
+      </c>
+      <c r="H16">
+        <v>9.669651</v>
+      </c>
+      <c r="I16">
+        <v>0.2790108664516205</v>
+      </c>
+      <c r="J16">
+        <v>0.3556546234305484</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7641880000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.528376</v>
+      </c>
+      <c r="O16">
+        <v>0.7339908811582677</v>
+      </c>
+      <c r="P16">
+        <v>0.6478269439034264</v>
+      </c>
+      <c r="Q16">
+        <v>2.463143752796</v>
+      </c>
+      <c r="R16">
+        <v>14.778862516776</v>
+      </c>
+      <c r="S16">
+        <v>0.2047914317195567</v>
+      </c>
+      <c r="T16">
+        <v>0.2304026477821361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.92403</v>
+      </c>
+      <c r="H17">
+        <v>3.84806</v>
+      </c>
+      <c r="I17">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J17">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.142069</v>
+      </c>
+      <c r="N17">
+        <v>0.426207</v>
+      </c>
+      <c r="O17">
+        <v>0.1364551007020182</v>
+      </c>
+      <c r="P17">
+        <v>0.1806547461359297</v>
+      </c>
+      <c r="Q17">
+        <v>0.27334501807</v>
+      </c>
+      <c r="R17">
+        <v>1.64007010842</v>
+      </c>
+      <c r="S17">
+        <v>0.02272653292785693</v>
+      </c>
+      <c r="T17">
+        <v>0.02556871309272701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.92403</v>
+      </c>
+      <c r="H18">
+        <v>3.84806</v>
+      </c>
+      <c r="I18">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J18">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.134884</v>
+      </c>
+      <c r="N18">
+        <v>0.404652</v>
+      </c>
+      <c r="O18">
+        <v>0.129554018139714</v>
+      </c>
+      <c r="P18">
+        <v>0.171518309960644</v>
+      </c>
+      <c r="Q18">
+        <v>0.25952086252</v>
+      </c>
+      <c r="R18">
+        <v>1.55712517512</v>
+      </c>
+      <c r="S18">
+        <v>0.02157716086859944</v>
+      </c>
+      <c r="T18">
+        <v>0.0242756005659179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.92403</v>
+      </c>
+      <c r="H19">
+        <v>3.84806</v>
+      </c>
+      <c r="I19">
+        <v>0.1665495302919137</v>
+      </c>
+      <c r="J19">
+        <v>0.1415335807091855</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7641880000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.528376</v>
+      </c>
+      <c r="O19">
+        <v>0.7339908811582677</v>
+      </c>
+      <c r="P19">
+        <v>0.6478269439034264</v>
+      </c>
+      <c r="Q19">
+        <v>1.47032063764</v>
+      </c>
+      <c r="R19">
+        <v>5.881282550560001</v>
+      </c>
+      <c r="S19">
+        <v>0.1222458364954574</v>
+      </c>
+      <c r="T19">
+        <v>0.09168926705054058</v>
       </c>
     </row>
   </sheetData>
